--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3401310.219865656</v>
+        <v>3505489.85431673</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859872.884888268</v>
+        <v>7859872.884888269</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>280.3582493446703</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.35112070699669</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>22.79232392276405</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.451579104186558</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.1873534853717</v>
+        <v>271.2903285220037</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.6984002028141</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>111.9187566128687</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>275.7779095904234</v>
       </c>
       <c r="W8" t="n">
-        <v>251.1439098532697</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.3641957111782</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>10.20389322926702</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.05480806223585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>184.5018925095688</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>1.632620083626864</v>
       </c>
       <c r="X16" t="n">
-        <v>34.44047701880672</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>38.37250637580677</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>38.61213096654735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>23.10998325717217</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>51.36569740310371</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>26.07046444232116</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>197.5531614305018</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.75138076689395</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>251.0718348128885</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>139.7072979240952</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.9962538432445</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>118.8241514613406</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>80.90831282609541</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>49.48749137895523</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756221</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927785</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555.4774356872698</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>386.5412527593629</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>236.4246133470272</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>236.4246133470272</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>89.53466584911683</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>89.53466584911683</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1924.818205559011</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971665</v>
+        <v>1635.715338684655</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765778</v>
+        <v>1381.030850478768</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="X4" t="n">
-        <v>776.2700148307999</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.4774356872698</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805451</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2619.198073544676</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1094.090022971289</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y7" t="n">
-        <v>1094.090022971289</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3047.042276568338</v>
       </c>
       <c r="W8" t="n">
-        <v>2377.041072043026</v>
+        <v>2694.273621298224</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.041072043026</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>690.674942710575</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C10" t="n">
-        <v>521.7387597826681</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D10" t="n">
-        <v>371.6221203703324</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>223.7090267879393</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>76.8190792900289</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>76.8190792900289</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>76.8190792900289</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4990,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>872.3234075408147</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>872.3234075408147</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="11">
@@ -5027,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,10 +5059,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5069,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5269,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5303,16 +5305,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5323,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5364,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5494,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,13 +5606,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5986,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>117.1600804794589</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6242,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871884</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>369.499740389278</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6479,7 +6481,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6494,16 +6496,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289435</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505193</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>3809.631423131745</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>3809.631423131745</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.580456911439</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835325</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711968</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888038</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908936</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2420.62928111327</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2237.774446768174</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487569</v>
+        <v>2018.172981791115</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831767</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831767</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.570148794807</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.021500885209</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.228921741679</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1337.934786622704</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1889.844516861991</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2313.46766635706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.647281583949</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.711098656042</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243707</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661314</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650996</v>
+        <v>2401.759668664206</v>
       </c>
       <c r="T34" t="n">
-        <v>4623.787448650996</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U34" t="n">
-        <v>4370.179534698584</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V34" t="n">
-        <v>4115.495046492697</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W34" t="n">
-        <v>3826.077876455736</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X34" t="n">
-        <v>3598.088325557719</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y34" t="n">
-        <v>3377.295746414189</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.450525729773</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801866</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.397703389531</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807138</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309227</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024107</v>
+        <v>317.0218491516696</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421536</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765734</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3927.471972559847</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3638.054802522886</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>3638.054802522886</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>3442.098990560013</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7168,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>584.529540471266</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>437.6395929733557</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908938</v>
@@ -7561,10 +7563,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7628,52 +7630,52 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474785</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536386</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257316</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133958</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310025</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330921</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524077</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662387</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625426</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727409</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>101.6825818796753</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>284.8903782529641</v>
       </c>
       <c r="X16" t="n">
-        <v>191.2691783702304</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>141.4594738061305</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>114.1584408891651</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>40.3047822678005</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>28.15649395853526</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>136.2749052347506</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>35.1126395763556</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.5874149221286302</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.58839950885033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>46.69998683092828</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>144.8013425629417</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25795,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516663</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144769</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.135591836438315e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815701</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26448,7 +26450,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26457,7 +26459,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680572</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768179.0601526811</v>
+        <v>-768179.0601526806</v>
       </c>
       <c r="C6" t="n">
-        <v>560565.6855749122</v>
+        <v>560565.6855749118</v>
       </c>
       <c r="D6" t="n">
-        <v>560565.6855749118</v>
+        <v>560565.6855749119</v>
       </c>
       <c r="E6" t="n">
-        <v>308298.6368651873</v>
+        <v>308298.6368651871</v>
       </c>
       <c r="F6" t="n">
-        <v>633711.0986725424</v>
+        <v>633711.0986725425</v>
       </c>
       <c r="G6" t="n">
-        <v>633711.0986725424</v>
+        <v>633711.0986725423</v>
       </c>
       <c r="H6" t="n">
-        <v>633711.0986725421</v>
+        <v>633711.0986725423</v>
       </c>
       <c r="I6" t="n">
-        <v>633711.0986725421</v>
+        <v>633711.0986725425</v>
       </c>
       <c r="J6" t="n">
-        <v>416179.8962752648</v>
+        <v>416179.896275265</v>
       </c>
       <c r="K6" t="n">
-        <v>633711.0986725423</v>
+        <v>633711.0986725425</v>
       </c>
       <c r="L6" t="n">
-        <v>633711.0986725426</v>
+        <v>633711.0986725425</v>
       </c>
       <c r="M6" t="n">
         <v>548656.0707370304</v>
       </c>
       <c r="N6" t="n">
-        <v>633711.0986725423</v>
+        <v>633711.0986725426</v>
       </c>
       <c r="O6" t="n">
-        <v>633711.0986725426</v>
+        <v>633711.0986725424</v>
       </c>
       <c r="P6" t="n">
         <v>633711.0986725425</v>
@@ -26695,22 +26697,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>84.91464242633725</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>331.8898480104163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>121.9626909915567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>217.0973701719826</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154.5464881781089</v>
+        <v>111.4435131414768</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.13357997912317</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>51.9743488797115</v>
       </c>
       <c r="W8" t="n">
-        <v>98.09705886414335</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.88262538744962</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>86.14852718057107</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>-2.444267011014745e-12</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.04212934578148e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.04212934578148e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,7 +32086,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32324,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772183</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33259,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>355.4083096598242</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321067</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33494,22 +33496,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33968,22 +33970,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N39" t="n">
-        <v>151.9914336104071</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,19 +34207,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>211.3773391483997</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,7 +35734,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028593151</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876622</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N39" t="n">
-        <v>20.64972152707382</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.39556506237817</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789214</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3505489.85431673</v>
+        <v>3501477.244302737</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859872.884888269</v>
+        <v>7859872.884888267</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>280.3582493446703</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>78.55873581869014</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>2.451579104186558</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>224.9388174741933</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>271.2903285220037</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>218.8748435506841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>111.9187566128687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>234.2009798174991</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>275.7779095904234</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.3641957111782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>184.5018925095688</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>180.330238561827</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>1.632620083626864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38.37250637580677</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>48.85497112745762</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346631</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.07046444232116</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>44.75138076689395</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>139.7072979240952</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>118.8241514613406</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>49.48749137895523</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219474</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>584.6815723082757</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>198.8933197100314</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259407</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283596</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1924.818205559011</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1635.715338684655</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.030850478768</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W4" t="n">
-        <v>1091.613680441807</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520488</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544676</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,16 +4652,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>477.7578170212613</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.7578170212613</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3047.042276568338</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2694.273621298224</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2320.807863037144</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4520072430315</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5029,40 +5029,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,13 +5269,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302817</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421608</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,7 +6481,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6493,10 +6493,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.62928111327</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2237.774446768174</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2018.172981791115</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.097755135313</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.550723916711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908938</v>
@@ -6852,10 +6852,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2401.759668664206</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2182.158203687148</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1893.082977031346</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1638.398488825459</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1348.981318788498</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1120.991767890481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>900.1991887469508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.0218491516696</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7134,13 +7134,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>734.6461798836018</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>584.529540471266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>584.529540471266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>437.6395929733557</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349513</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.574735228845</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.550723916711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908938</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>101.6825818796753</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>284.8903782529641</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.4594738061305</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.3047822678005</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>84.77391660561906</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>136.2749052347506</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5874149221286302</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>46.69998683092828</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>202.6501519448728</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.6085800303778</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144769</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244625</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
-        <v>1.135591836438315e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26441,16 +26441,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768179.0601526806</v>
+        <v>-768179.0601526805</v>
       </c>
       <c r="C6" t="n">
+        <v>560565.6855749121</v>
+      </c>
+      <c r="D6" t="n">
         <v>560565.6855749118</v>
       </c>
-      <c r="D6" t="n">
-        <v>560565.6855749119</v>
-      </c>
       <c r="E6" t="n">
-        <v>308298.6368651871</v>
+        <v>307951.2576108304</v>
       </c>
       <c r="F6" t="n">
-        <v>633711.0986725425</v>
+        <v>633363.7194181852</v>
       </c>
       <c r="G6" t="n">
-        <v>633711.0986725423</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="H6" t="n">
-        <v>633711.0986725423</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="I6" t="n">
-        <v>633711.0986725425</v>
+        <v>633363.7194181854</v>
       </c>
       <c r="J6" t="n">
-        <v>416179.896275265</v>
+        <v>415832.517020908</v>
       </c>
       <c r="K6" t="n">
-        <v>633711.0986725425</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="L6" t="n">
-        <v>633711.0986725425</v>
+        <v>633363.7194181855</v>
       </c>
       <c r="M6" t="n">
-        <v>548656.0707370304</v>
+        <v>548308.6914826735</v>
       </c>
       <c r="N6" t="n">
-        <v>633711.0986725426</v>
+        <v>633363.7194181854</v>
       </c>
       <c r="O6" t="n">
-        <v>633711.0986725424</v>
+        <v>633363.7194181854</v>
       </c>
       <c r="P6" t="n">
-        <v>633711.0986725425</v>
+        <v>633363.7194181854</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>84.91464242633725</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>328.3173099230213</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>217.0973701719826</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>27.19882584963466</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.4435131414768</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194508</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>131.0719119535084</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>51.9743488797115</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.88262538744962</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>-6.674596803735691e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,28 +33259,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33499,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -33733,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>448.9178583921318</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>213.2742757378059</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37165,7 +37165,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>314.9434509778015</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37876,10 +37876,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3501477.244302737</v>
+        <v>3503237.774605522</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7859872.884888267</v>
+        <v>7859872.884888268</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>78.55873581869014</v>
+        <v>78.55873581868924</v>
       </c>
       <c r="G2" t="n">
         <v>10.92172565345345</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>147.2339392611577</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506841</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.330238561827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.5512144998717</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>137.9792024346631</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>94.30373791808191</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>132.6315337216692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444142</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>112.7304175246775</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150261</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D2" t="n">
-        <v>584.6815723082757</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E2" t="n">
-        <v>198.8933197100314</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="F2" t="n">
         <v>119.5410613073141</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4470,22 +4470,22 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4719,10 +4719,10 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,7 +5114,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
         <v>95.58405025273902</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,22 +5293,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,16 +5466,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
         <v>1501.108204237296</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273903</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6217,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,64 +6360,64 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
         <v>2018.514925172274</v>
@@ -6457,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6694,43 +6694,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,43 +6919,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362691</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,46 +7332,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
         <v>974.1018203925706</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>114.1584408891654</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>114.1584408891649</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>71.22040037418694</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>84.77391660561906</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144769</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
@@ -26346,13 +26346,13 @@
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26441,10 +26441,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26524,46 +26524,46 @@
         <v>-768179.0601526805</v>
       </c>
       <c r="C6" t="n">
-        <v>560565.6855749121</v>
+        <v>560565.6855749122</v>
       </c>
       <c r="D6" t="n">
         <v>560565.6855749118</v>
       </c>
       <c r="E6" t="n">
-        <v>307951.2576108304</v>
+        <v>308263.8989397516</v>
       </c>
       <c r="F6" t="n">
-        <v>633363.7194181852</v>
+        <v>633676.3607471071</v>
       </c>
       <c r="G6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="H6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471068</v>
       </c>
       <c r="I6" t="n">
-        <v>633363.7194181854</v>
+        <v>633676.3607471065</v>
       </c>
       <c r="J6" t="n">
-        <v>415832.517020908</v>
+        <v>416145.1583498296</v>
       </c>
       <c r="K6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471066</v>
       </c>
       <c r="L6" t="n">
-        <v>633363.7194181855</v>
+        <v>633676.3607471068</v>
       </c>
       <c r="M6" t="n">
-        <v>548308.6914826735</v>
+        <v>548621.3328115948</v>
       </c>
       <c r="N6" t="n">
-        <v>633363.7194181854</v>
+        <v>633676.3607471066</v>
       </c>
       <c r="O6" t="n">
-        <v>633363.7194181854</v>
+        <v>633676.3607471068</v>
       </c>
       <c r="P6" t="n">
-        <v>633363.7194181854</v>
+        <v>633676.3607471066</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,14 +26968,14 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>328.3173099230213</v>
+        <v>328.3173099230222</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>259.6421064805537</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194508</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.674596803735691e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32721,7 +32721,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33505,16 +33505,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>171.7382405950817</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>171.7382405950817</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>37.7638331807514</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>37.7638331807514</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
